--- a/results/data/QMood_Analysis.xlsx
+++ b/results/data/QMood_Analysis.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>This document was exported from Numbers.  Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
   </si>
@@ -30,10 +30,80 @@
     <t>Excel Worksheet Name</t>
   </si>
   <si>
+    <t>Export Summary</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
     <t>Median QMood Metrics</t>
   </si>
   <si>
-    <t>Table 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Median QMood Metrics</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Median QMOOD Values </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Median QMOOD Values </t>
+    </r>
+  </si>
+  <si>
+    <t>Absolute Improvement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Absolute Improvement</t>
+    </r>
+  </si>
+  <si>
+    <t>Overall Gain</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Overall Gain</t>
+    </r>
+  </si>
+  <si>
+    <t>single agent</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>single agent</t>
+    </r>
   </si>
   <si>
     <t>original</t>
@@ -168,9 +238,6 @@
     <t>deltaspike</t>
   </si>
   <si>
-    <t xml:space="preserve">Median QMOOD Values </t>
-  </si>
-  <si>
     <t xml:space="preserve">Original </t>
   </si>
   <si>
@@ -180,6 +247,9 @@
     <t>RefAgent-Starcoder</t>
   </si>
   <si>
+    <t>RefAgent-Deepseek-coder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reusability       </t>
   </si>
   <si>
@@ -198,9 +268,6 @@
     <t>Effectiveness</t>
   </si>
   <si>
-    <t>Absolute Improvement</t>
-  </si>
-  <si>
     <t>RefGen</t>
   </si>
   <si>
@@ -219,19 +286,16 @@
     <t>Extendibility</t>
   </si>
   <si>
-    <t>Overall Gain</t>
-  </si>
-  <si>
     <t>Gain GPT</t>
   </si>
   <si>
     <t>Gain Starcoder</t>
   </si>
   <si>
+    <t>Gain deepseek-coder</t>
+  </si>
+  <si>
     <t>Overall gain</t>
-  </si>
-  <si>
-    <t>single agent</t>
   </si>
   <si>
     <t>QMOOD Gain GPT</t>
@@ -259,7 +323,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -298,6 +362,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times Roman"/>
@@ -330,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="14"/>
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -341,7 +410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -353,42 +422,84 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="12"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="12"/>
       </bottom>
@@ -399,13 +510,13 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,19 +525,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
         <color indexed="12"/>
@@ -434,9 +545,7 @@
       <top style="thin">
         <color indexed="12"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -447,10 +556,10 @@
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,22 +571,154 @@
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="12"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="16"/>
@@ -486,7 +727,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
@@ -495,7 +736,7 @@
         <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,43 +745,43 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,44 +790,60 @@
         <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
-      </left>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+        <color indexed="14"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -594,118 +851,200 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="15"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,7 +1054,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -740,139 +1079,250 @@
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -897,8 +1347,8 @@
       <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -1051,9 +1501,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1133,7 +1583,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1160,10 +1610,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1410,9 +1860,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1690,7 +2140,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1717,10 +2167,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1962,263 +2412,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
     <col min="2" max="4" width="30.5547" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="13.55" customHeight="1">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" ht="13.55" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="10"/>
+      <c r="B3" t="s" s="13">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
     </row>
     <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="A7" s="10"/>
+      <c r="B7" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="14">
         <v>3</v>
       </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9">
-      <c r="B9" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="10"/>
+      <c r="B9" t="s" s="15">
+        <v>6</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="17"/>
+      <c r="C10" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s" s="19">
+        <v>7</v>
+      </c>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="10"/>
       <c r="B11" t="s" s="3">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-    </row>
-    <row r="12">
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="10"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" ht="13" customHeight="1">
+      <c r="A13" s="10"/>
       <c r="B13" t="s" s="3">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-    </row>
-    <row r="14">
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" ht="13" customHeight="1">
+      <c r="A14" s="10"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" ht="13" customHeight="1">
+      <c r="A15" s="10"/>
       <c r="B15" t="s" s="3">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-    </row>
-    <row r="16">
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" ht="13" customHeight="1">
+      <c r="A16" s="10"/>
       <c r="B16" s="4"/>
       <c r="C16" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D16" t="s" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>10</v>
+      </c>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" ht="13" customHeight="1">
+      <c r="A17" s="10"/>
       <c r="B17" t="s" s="3">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18">
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" ht="13" customHeight="1">
+      <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s" s="4">
         <v>5</v>
       </c>
       <c r="D18" t="s" s="5">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19">
+      <c r="B19" t="s" s="3">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s" s="5">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B3:D3"/>
     <mergeCell ref="B3:D3"/>
   </mergeCells>
   <hyperlinks>
+    <hyperlink ref="D10" location="'Export Summary'!R1C1" tooltip="" display="Export Summary"/>
     <hyperlink ref="D10" location="'Median QMood Metrics'!R1C1" tooltip="" display="Median QMood Metrics"/>
-    <hyperlink ref="D12" location="'Median QMOOD Values '!R2C1" tooltip="" display="Median QMOOD Values "/>
+    <hyperlink ref="D12" location="'Median QMOOD Values '!R1C1" tooltip="" display="Median QMOOD Values "/>
     <hyperlink ref="D14" location="'Absolute Improvement'!R1C1" tooltip="" display="Absolute Improvement"/>
     <hyperlink ref="D16" location="'Overall Gain'!R1C1" tooltip="" display="Overall Gain"/>
-    <hyperlink ref="D18" location="'single agent'!R2C1" tooltip="" display="single agent"/>
+    <hyperlink ref="D18" location="'single agent'!R1C1" tooltip="" display="single agent"/>
+    <hyperlink ref="D12" location="'Median QMood Metrics'!R1C1" tooltip="" display="Median QMood Metrics"/>
+    <hyperlink ref="D14" location="'Median QMOOD Values '!R1C1" tooltip="" display="Median QMOOD Values "/>
+    <hyperlink ref="D16" location="'Absolute Improvement'!R1C1" tooltip="" display="Absolute Improvement"/>
+    <hyperlink ref="D18" location="'Overall Gain'!R1C1" tooltip="" display="Overall Gain"/>
+    <hyperlink ref="D20" location="'single agent'!R1C1" tooltip="" display="single agent"/>
   </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="6" customWidth="1"/>
-    <col min="2" max="4" width="23" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="8.85156" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85156" style="25" customWidth="1"/>
+    <col min="2" max="4" width="23" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.85156" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s" s="8">
-        <v>8</v>
-      </c>
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s" s="27">
+        <v>18</v>
+      </c>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" ht="91.55" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s" s="12">
-        <v>12</v>
-      </c>
+      <c r="A2" t="s" s="27">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="29">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="30">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s" s="30">
+        <v>22</v>
+      </c>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" ht="91.55" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s" s="16">
-        <v>15</v>
-      </c>
+      <c r="A3" t="s" s="27">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="E3" s="31"/>
     </row>
     <row r="4" ht="91.55" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s" s="16">
-        <v>19</v>
-      </c>
+      <c r="A4" t="s" s="27">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s" s="33">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s" s="33">
+        <v>29</v>
+      </c>
+      <c r="E4" s="31"/>
     </row>
     <row r="5" ht="91.55" customHeight="1">
-      <c r="A5" t="s" s="8">
+      <c r="A5" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s" s="34">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s" s="35">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="35">
+        <v>33</v>
+      </c>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" ht="91.55" customHeight="1">
+      <c r="A6" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s" s="29">
         <v>20</v>
       </c>
-      <c r="B5" t="s" s="18">
+      <c r="C6" t="s" s="30">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="20">
+      <c r="D6" t="s" s="30">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="20">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" ht="91.55" customHeight="1">
-      <c r="A6" t="s" s="8">
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" ht="91.55" customHeight="1">
+      <c r="A7" t="s" s="27">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="B6" t="s" s="10">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="91.55" customHeight="1">
-      <c r="A7" t="s" s="8">
+      <c r="C7" t="s" s="33">
         <v>25</v>
       </c>
-      <c r="B7" t="s" s="14">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s" s="16">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="16">
-        <v>15</v>
-      </c>
+      <c r="D7" t="s" s="33">
+        <v>25</v>
+      </c>
+      <c r="E7" s="31"/>
     </row>
     <row r="8" ht="91.55" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s" s="16">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s" s="16">
-        <v>19</v>
-      </c>
+      <c r="A8" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s" s="33">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s" s="33">
+        <v>29</v>
+      </c>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" ht="91.55" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="16">
-        <v>23</v>
-      </c>
+      <c r="A9" t="s" s="27">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s" s="32">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s" s="33">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s" s="33">
+        <v>33</v>
+      </c>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="36"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2234,121 +2805,156 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D8"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="4" width="16.3516" style="21" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="4" width="16.3516" style="39" customWidth="1"/>
+    <col min="5" max="5" width="26.9062" style="39" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="22">
+      <c r="A1" t="s" s="40">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" ht="13.1" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" t="s" s="24">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="24">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s" s="24">
-        <v>31</v>
+      <c r="A2" s="43"/>
+      <c r="B2" t="s" s="44">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="44">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s" s="44">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s" s="44">
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="13.1" customHeight="1">
-      <c r="A3" t="s" s="25">
-        <v>32</v>
-      </c>
-      <c r="B3" s="26">
+      <c r="A3" t="s" s="45">
+        <v>42</v>
+      </c>
+      <c r="B3" s="46">
         <v>0.940389</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="47">
         <v>9.949999999999999</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="47">
         <v>5.610119</v>
       </c>
+      <c r="E3" s="47">
+        <v>9.98</v>
+      </c>
     </row>
     <row r="4" ht="12.9" customHeight="1">
-      <c r="A4" t="s" s="28">
-        <v>33</v>
-      </c>
-      <c r="B4" s="29">
+      <c r="A4" t="s" s="48">
+        <v>43</v>
+      </c>
+      <c r="B4" s="49">
         <v>-0.3125</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="50">
         <v>-0.95</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="50">
         <v>-0.625</v>
       </c>
+      <c r="E4" s="50">
+        <v>-0.85</v>
+      </c>
     </row>
     <row r="5" ht="16.35" customHeight="1">
-      <c r="A5" t="s" s="28">
-        <v>34</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="A5" t="s" s="48">
+        <v>44</v>
+      </c>
+      <c r="B5" s="49">
         <v>-3.087857</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="51">
         <v>-18.535714</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="50">
         <v>-7.1</v>
       </c>
+      <c r="E5" s="51">
+        <v>-19.535714</v>
+      </c>
     </row>
     <row r="6" ht="16.35" customHeight="1">
-      <c r="A6" t="s" s="28">
-        <v>35</v>
-      </c>
-      <c r="B6" s="29">
+      <c r="A6" t="s" s="48">
+        <v>45</v>
+      </c>
+      <c r="B6" s="49">
         <v>0.845</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="51">
         <v>5.2</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="50">
         <v>1.71</v>
       </c>
+      <c r="E6" s="51">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="7" ht="16.35" customHeight="1">
-      <c r="A7" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="B7" s="29">
+      <c r="A7" t="s" s="48">
+        <v>46</v>
+      </c>
+      <c r="B7" s="49">
         <v>-0.5</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="51">
         <v>0.4</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="50">
         <v>-0.9</v>
       </c>
+      <c r="E7" s="51">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="8" ht="12.9" customHeight="1">
-      <c r="A8" t="s" s="32">
-        <v>37</v>
-      </c>
-      <c r="B8" s="29">
+      <c r="A8" t="s" s="52">
+        <v>47</v>
+      </c>
+      <c r="B8" s="49">
         <v>0.4</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="50">
         <v>4.86</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="50">
         <v>4.86</v>
       </c>
+      <c r="E8" s="50">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2364,114 +2970,157 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="33" customWidth="1"/>
-    <col min="2" max="2" width="22" style="33" customWidth="1"/>
-    <col min="3" max="3" width="26.1719" style="33" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="33" customWidth="1"/>
-    <col min="5" max="16384" width="8.85156" style="33" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="58" customWidth="1"/>
+    <col min="2" max="2" width="22" style="58" customWidth="1"/>
+    <col min="3" max="3" width="26.1719" style="58" customWidth="1"/>
+    <col min="4" max="4" width="8.85156" style="58" customWidth="1"/>
+    <col min="5" max="5" width="30.3438" style="58" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s" s="13">
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
         <v>39</v>
       </c>
+      <c r="C1" t="s" s="27">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s" s="59">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s" s="27">
+        <v>41</v>
+      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B2" s="34">
+      <c r="A2" t="s" s="27">
+        <v>49</v>
+      </c>
+      <c r="B2" s="60">
         <v>8.16659902597403</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="61">
         <v>5.4880275974026</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="62">
         <v>16.5</v>
       </c>
+      <c r="E2" s="60">
+        <v>8.19009093398485</v>
+      </c>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B3" s="37">
+      <c r="A3" t="s" s="27">
+        <v>50</v>
+      </c>
+      <c r="B3" s="63">
         <v>-0.625000000000001</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="64">
         <v>-0.3125</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="62">
         <v>-5.9</v>
       </c>
+      <c r="E3" s="63">
+        <v>-0.625000000000001</v>
+      </c>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B4" s="37">
+      <c r="A4" t="s" s="27">
+        <v>51</v>
+      </c>
+      <c r="B4" s="63">
         <v>-14.4375</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="64">
         <v>-13.475</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="62">
         <v>-19.7</v>
       </c>
+      <c r="E4" s="63">
+        <v>-14.4375</v>
+      </c>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B5" s="37">
+      <c r="A5" t="s" s="27">
+        <v>52</v>
+      </c>
+      <c r="B5" s="63">
         <v>4.75</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="64">
         <v>0.499999999999994</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="62">
         <v>0</v>
       </c>
+      <c r="E5" s="63">
+        <v>4.75</v>
+      </c>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B6" s="37">
+      <c r="A6" t="s" s="27">
+        <v>53</v>
+      </c>
+      <c r="B6" s="63">
         <v>0</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="64">
         <v>0</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="62">
         <v>5.9</v>
       </c>
+      <c r="E6" s="63">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B7" s="37">
+      <c r="A7" t="s" s="27">
+        <v>47</v>
+      </c>
+      <c r="B7" s="63">
         <v>4.28691983122363</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="64">
         <v>4.28691983122363</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="62">
         <v>-9.699999999999999</v>
       </c>
+      <c r="E7" s="63">
+        <v>4.28691983122363</v>
+      </c>
+    </row>
+    <row r="8" ht="13.55" customHeight="1">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2490,97 +3139,104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="5" width="8.85156" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="38" customWidth="1"/>
+    <col min="1" max="5" width="8.85156" style="71" customWidth="1"/>
+    <col min="6" max="16384" width="8.85156" style="71" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" s="7"/>
-      <c r="B1" t="s" s="8">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s" s="8">
-        <v>47</v>
-      </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40"/>
+      <c r="A1" s="26"/>
+      <c r="B1" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s" s="27">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s" s="72">
+        <v>56</v>
+      </c>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="41">
+      <c r="A2" s="74">
         <v>0</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="60">
         <v>0.08377669809532939</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="75">
         <v>0.0401040790477104</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="60">
+        <v>0.0866664509454</v>
+      </c>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="11">
-        <v>48</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="A3" t="s" s="76">
+        <v>57</v>
+      </c>
+      <c r="B3" s="64">
         <f>B2*100</f>
         <v>8.377669809532939</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="64">
         <f>C2*100</f>
         <v>4.01040790477104</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="64">
+        <f>D2*100</f>
+        <v>8.666645094540</v>
+      </c>
+      <c r="E3" s="73"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="A6" s="73"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="73"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="A9" s="73"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2596,187 +3252,205 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="42" customWidth="1"/>
-    <col min="3" max="3" width="29.2969" style="42" customWidth="1"/>
-    <col min="4" max="7" width="16.3516" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="42" customWidth="1"/>
+    <col min="1" max="2" width="16.3516" style="77" customWidth="1"/>
+    <col min="3" max="3" width="29.3516" style="77" customWidth="1"/>
+    <col min="4" max="7" width="16.3516" style="77" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.55" customHeight="1">
-      <c r="A1" t="s" s="22">
+      <c r="A1" t="s" s="40">
         <v>5</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="79"/>
     </row>
     <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" s="43"/>
-      <c r="B2" t="s" s="8">
+      <c r="A2" s="80"/>
+      <c r="B2" t="s" s="27">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s" s="27">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s" s="81">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s" s="82">
+        <v>61</v>
+      </c>
+      <c r="F2" t="s" s="83">
+        <v>62</v>
+      </c>
+      <c r="G2" t="s" s="82">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" ht="13.55" customHeight="1">
+      <c r="A3" t="s" s="27">
+        <v>49</v>
+      </c>
+      <c r="B3" s="84">
+        <v>8.16659902597403</v>
+      </c>
+      <c r="C3" s="85">
+        <v>5.4880275974026</v>
+      </c>
+      <c r="D3" s="84">
+        <v>6.26667575888534</v>
+      </c>
+      <c r="E3" s="86">
+        <v>4.88554505559686</v>
+      </c>
+      <c r="F3" s="50">
+        <v>4.554522425444</v>
+      </c>
+      <c r="G3" s="86">
+        <v>3.3435453453</v>
+      </c>
+    </row>
+    <row r="4" ht="13.55" customHeight="1">
+      <c r="A4" t="s" s="27">
         <v>50</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="B4" s="87">
+        <v>-0.625000000000001</v>
+      </c>
+      <c r="C4" s="88">
+        <v>-0.3125</v>
+      </c>
+      <c r="D4" s="87">
+        <v>-0.625000000000001</v>
+      </c>
+      <c r="E4" s="88">
+        <v>-0.3125</v>
+      </c>
+      <c r="F4" s="87">
+        <v>-0.625000000000001</v>
+      </c>
+      <c r="G4" s="50">
+        <v>-0.3125</v>
+      </c>
+    </row>
+    <row r="5" ht="13.55" customHeight="1">
+      <c r="A5" t="s" s="27">
         <v>51</v>
       </c>
-      <c r="D2" t="s" s="44">
+      <c r="B5" s="87">
+        <v>-14.4375</v>
+      </c>
+      <c r="C5" s="88">
+        <v>-13.475</v>
+      </c>
+      <c r="D5" s="87">
+        <v>-12.4543</v>
+      </c>
+      <c r="E5" s="88">
+        <v>-11.635</v>
+      </c>
+      <c r="F5" s="87">
+        <v>-12.4234</v>
+      </c>
+      <c r="G5" s="50">
+        <v>-11.4534</v>
+      </c>
+    </row>
+    <row r="6" ht="13.55" customHeight="1">
+      <c r="A6" t="s" s="27">
         <v>52</v>
       </c>
-      <c r="E2" t="s" s="45">
+      <c r="B6" s="87">
+        <v>4.75</v>
+      </c>
+      <c r="C6" s="88">
+        <v>0.499999999999994</v>
+      </c>
+      <c r="D6" s="87">
+        <v>4.75</v>
+      </c>
+      <c r="E6" s="88">
+        <v>0.499999999999994</v>
+      </c>
+      <c r="F6" s="87">
+        <v>4.75</v>
+      </c>
+      <c r="G6" s="50">
+        <v>0.499999999999994</v>
+      </c>
+    </row>
+    <row r="7" ht="13.55" customHeight="1">
+      <c r="A7" t="s" s="27">
         <v>53</v>
       </c>
-      <c r="F2" t="s" s="46">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s" s="45">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>40</v>
-      </c>
-      <c r="B3" s="47">
-        <v>8.16659902597403</v>
-      </c>
-      <c r="C3" s="48">
-        <v>5.4880275974026</v>
-      </c>
-      <c r="D3" s="47">
-        <v>6.26667575888534</v>
-      </c>
-      <c r="E3" s="49">
-        <v>4.88554505559686</v>
-      </c>
-      <c r="F3" s="30">
-        <v>4.554522425444</v>
-      </c>
-      <c r="G3" s="49">
-        <v>3.3435453453</v>
-      </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="8">
-        <v>41</v>
-      </c>
-      <c r="B4" s="50">
-        <v>-0.625000000000001</v>
-      </c>
-      <c r="C4" s="51">
-        <v>-0.3125</v>
-      </c>
-      <c r="D4" s="50">
-        <v>-0.625000000000001</v>
-      </c>
-      <c r="E4" s="51">
-        <v>-0.3125</v>
-      </c>
-      <c r="F4" s="50">
-        <v>-0.625000000000001</v>
-      </c>
-      <c r="G4" s="30">
-        <v>-0.3125</v>
-      </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="8">
-        <v>42</v>
-      </c>
-      <c r="B5" s="50">
-        <v>-14.4375</v>
-      </c>
-      <c r="C5" s="51">
-        <v>-13.475</v>
-      </c>
-      <c r="D5" s="50">
-        <v>-12.4543</v>
-      </c>
-      <c r="E5" s="51">
-        <v>-11.635</v>
-      </c>
-      <c r="F5" s="50">
-        <v>-12.4234</v>
-      </c>
-      <c r="G5" s="30">
-        <v>-11.4534</v>
-      </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="8">
-        <v>43</v>
-      </c>
-      <c r="B6" s="50">
-        <v>4.75</v>
-      </c>
-      <c r="C6" s="51">
-        <v>0.499999999999994</v>
-      </c>
-      <c r="D6" s="50">
-        <v>4.75</v>
-      </c>
-      <c r="E6" s="51">
-        <v>0.499999999999994</v>
-      </c>
-      <c r="F6" s="50">
-        <v>4.75</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0.499999999999994</v>
-      </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>44</v>
-      </c>
-      <c r="B7" s="50">
+      <c r="B7" s="87">
         <v>0</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="88">
         <v>0</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="87">
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="88">
         <v>0</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="87">
         <v>0</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="B8" s="50">
+      <c r="A8" t="s" s="27">
+        <v>47</v>
+      </c>
+      <c r="B8" s="87">
         <v>4.28691983122363</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="88">
         <v>4.28691983122363</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="89">
         <v>3.342234334230</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8" s="89">
         <v>3.342234334230</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="89">
         <v>3.33423555</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="87">
         <v>3.3342344444</v>
       </c>
+    </row>
+    <row r="9" ht="13.55" customHeight="1">
+      <c r="A9" s="65"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" ht="13.55" customHeight="1">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
